--- a/words_2_chars.xlsx
+++ b/words_2_chars.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47FA1B5-8B4F-4B1B-B5F7-3B6D6D3492A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>単語</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>あい</t>
+  </si>
+  <si>
+    <t>愛</t>
+  </si>
+  <si>
+    <t>あし</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>あか</t>
+  </si>
+  <si>
+    <t>赤</t>
+  </si>
+  <si>
+    <t>あお</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>あき</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,92 +426,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>単語</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>意味</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>あい</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>愛</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>あし</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>足</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>あか</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>赤</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>あお</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>青</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>あき</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>秋</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/words_2_chars.xlsx
+++ b/words_2_chars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47FA1B5-8B4F-4B1B-B5F7-3B6D6D3492A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E06869B-4713-4286-8574-7518C81953A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/words_2_chars.xlsx
+++ b/words_2_chars.xlsx
@@ -5,22 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\言葉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7024d8b65f2563e3/デスクトップ/雑魚/言葉データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E06869B-4713-4286-8574-7518C81953A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{9E06869B-4713-4286-8574-7518C81953A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80647733-1871-4458-B0BA-072DA7E594D2}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$37</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
   <si>
     <t>単語</t>
   </si>
@@ -56,13 +72,451 @@
   </si>
   <si>
     <t>秋</t>
+  </si>
+  <si>
+    <t>いえ</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>いか</t>
+  </si>
+  <si>
+    <t>烏賊</t>
+  </si>
+  <si>
+    <t>いる</t>
+  </si>
+  <si>
+    <t>射る</t>
+  </si>
+  <si>
+    <t>うみ</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>えだ</t>
+  </si>
+  <si>
+    <t>枝</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>かみ</t>
+  </si>
+  <si>
+    <t>紙</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>さけ</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>鮭</t>
+  </si>
+  <si>
+    <t>さる</t>
+  </si>
+  <si>
+    <t>猿</t>
+  </si>
+  <si>
+    <t>しろ</t>
+  </si>
+  <si>
+    <t>城</t>
+  </si>
+  <si>
+    <t>たに</t>
+  </si>
+  <si>
+    <t>谷</t>
+  </si>
+  <si>
+    <t>たけ</t>
+  </si>
+  <si>
+    <t>竹</t>
+  </si>
+  <si>
+    <t>とり</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>なる</t>
+  </si>
+  <si>
+    <t>鳴る</t>
+  </si>
+  <si>
+    <t>のみ</t>
+  </si>
+  <si>
+    <t>飲み</t>
+  </si>
+  <si>
+    <t>はな</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>はや</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>ひと</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>ふね</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>まえ</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>みず</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>むし</t>
+  </si>
+  <si>
+    <t>虫</t>
+  </si>
+  <si>
+    <t>やま</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>よる</t>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>ゆき</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>よこ</t>
+  </si>
+  <si>
+    <t>横</t>
+  </si>
+  <si>
+    <t>りん</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>れつ</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>ろう</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>あさ</t>
+  </si>
+  <si>
+    <t>朝</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>姉</t>
+  </si>
+  <si>
+    <t>いち</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>うた</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>えん</t>
+  </si>
+  <si>
+    <t>円</t>
+  </si>
+  <si>
+    <t>おか</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>おと</t>
+  </si>
+  <si>
+    <t>音</t>
+  </si>
+  <si>
+    <t>かお</t>
+  </si>
+  <si>
+    <t>顔</t>
+  </si>
+  <si>
+    <t>かた</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>きき</t>
+  </si>
+  <si>
+    <t>危機</t>
+  </si>
+  <si>
+    <t>きた</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>くに</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>くも</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>ここ</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>こめ</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>さら</t>
+  </si>
+  <si>
+    <t>皿</t>
+  </si>
+  <si>
+    <t>しつ</t>
+  </si>
+  <si>
+    <t>質</t>
+  </si>
+  <si>
+    <t>じん</t>
+  </si>
+  <si>
+    <t>すし</t>
+  </si>
+  <si>
+    <t>寿司</t>
+  </si>
+  <si>
+    <t>せか</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>そら</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>たい</t>
+  </si>
+  <si>
+    <t>体</t>
+  </si>
+  <si>
+    <t>たつ</t>
+  </si>
+  <si>
+    <t>立つ</t>
+  </si>
+  <si>
+    <t>つき</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>てら</t>
+  </si>
+  <si>
+    <t>寺</t>
+  </si>
+  <si>
+    <t>とし</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>なつ</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>にわ</t>
+  </si>
+  <si>
+    <t>庭</t>
+  </si>
+  <si>
+    <t>のう</t>
+  </si>
+  <si>
+    <t>農</t>
+  </si>
+  <si>
+    <t>はし</t>
+  </si>
+  <si>
+    <t>橋</t>
+  </si>
+  <si>
+    <t>はる</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>ひる</t>
+  </si>
+  <si>
+    <t>昼</t>
+  </si>
+  <si>
+    <t>ふゆ</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>ほし</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>まつ</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
+    <t>むね</t>
+  </si>
+  <si>
+    <t>胸</t>
+  </si>
+  <si>
+    <t>やく</t>
+  </si>
+  <si>
+    <t>役</t>
+  </si>
+  <si>
+    <t>ゆう</t>
+  </si>
+  <si>
+    <t>夕</t>
+  </si>
+  <si>
+    <t>よせ</t>
+  </si>
+  <si>
+    <t>寄せ</t>
+  </si>
+  <si>
+    <t>らく</t>
+  </si>
+  <si>
+    <t>楽</t>
+  </si>
+  <si>
+    <t>りつ</t>
+  </si>
+  <si>
+    <t>律</t>
+  </si>
+  <si>
+    <t>ろく</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>わた</t>
+  </si>
+  <si>
+    <t>綿</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,18 +525,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,10 +580,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,67 +893,1006 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="2" t="str">
+        <f>A2 &amp; B2</f>
+        <v>あい愛</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>A3 &amp; B3</f>
+        <v>あお青</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>A4 &amp; B4</f>
+        <v>あお青</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>A5 &amp; B5</f>
+        <v>あか赤</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>A6 &amp; B6</f>
+        <v>あき秋</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>A7 &amp; B7</f>
+        <v>あき秋</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>A8 &amp; B8</f>
+        <v>あさ朝</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="C9" s="2" t="str">
+        <f>A9 &amp; B9</f>
+        <v>あし足</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>A10 &amp; B10</f>
+        <v>あね姉</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>A11 &amp; B11</f>
+        <v>いえ家</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>A12 &amp; B12</f>
+        <v>いか烏賊</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>A13 &amp; B13</f>
+        <v>いち市</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>A14 &amp; B14</f>
+        <v>いる射る</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>A15 &amp; B15</f>
+        <v>うた歌</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>A16 &amp; B16</f>
+        <v>うみ海</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>A17 &amp; B17</f>
+        <v>えき駅</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>A18 &amp; B18</f>
+        <v>えだ枝</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>A19 &amp; B19</f>
+        <v>えん円</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>A20 &amp; B20</f>
+        <v>おか丘</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>A21 &amp; B21</f>
+        <v>おと音</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>A22 &amp; B22</f>
+        <v>かお顔</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f>A23 &amp; B23</f>
+        <v>かた形</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>A24 &amp; B24</f>
+        <v>かみ紙</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>A25 &amp; B25</f>
+        <v>かわ川</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>A26 &amp; B26</f>
+        <v>きき危機</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f>A27 &amp; B27</f>
+        <v>きた北</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f>A28 &amp; B28</f>
+        <v>くに国</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f>A29 &amp; B29</f>
+        <v>くも雲</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f>A30 &amp; B30</f>
+        <v>ここ心</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f>A31 &amp; B31</f>
+        <v>こめ米</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f>A32 &amp; B32</f>
+        <v>さけ酒</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f>A33 &amp; B33</f>
+        <v>さけ鮭</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f>A34 &amp; B34</f>
+        <v>さら皿</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f>A35 &amp; B35</f>
+        <v>さる猿</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f>A36 &amp; B36</f>
+        <v>しつ質</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f>A37 &amp; B37</f>
+        <v>しろ城</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f>A38 &amp; B38</f>
+        <v>じん人</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f>A39 &amp; B39</f>
+        <v>すし寿司</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f>A40 &amp; B40</f>
+        <v>せか世界</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f>A41 &amp; B41</f>
+        <v>そら空</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f>A42 &amp; B42</f>
+        <v>たい体</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f>A43 &amp; B43</f>
+        <v>たけ竹</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f>A44 &amp; B44</f>
+        <v>たつ立つ</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f>A45 &amp; B45</f>
+        <v>たに谷</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f>A46 &amp; B46</f>
+        <v>つき月</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f>A47 &amp; B47</f>
+        <v>てら寺</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f>A48 &amp; B48</f>
+        <v>とし年</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f>A49 &amp; B49</f>
+        <v>とり鳥</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f>A50 &amp; B50</f>
+        <v>なつ夏</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f>A51 &amp; B51</f>
+        <v>なる鳴る</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f>A52 &amp; B52</f>
+        <v>にわ庭</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f>A53 &amp; B53</f>
+        <v>のう農</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f>A54 &amp; B54</f>
+        <v>のみ飲み</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f>A55 &amp; B55</f>
+        <v>はし橋</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f>A56 &amp; B56</f>
+        <v>はな花</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f>A57 &amp; B57</f>
+        <v>はや早</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f>A58 &amp; B58</f>
+        <v>はる春</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f>A59 &amp; B59</f>
+        <v>ひと人</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f>A60 &amp; B60</f>
+        <v>ひる昼</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f>A61 &amp; B61</f>
+        <v>ふね船</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f>A62 &amp; B62</f>
+        <v>ふゆ冬</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f>A63 &amp; B63</f>
+        <v>ほし星</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f>A64 &amp; B64</f>
+        <v>まえ前</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f>A65 &amp; B65</f>
+        <v>まつ松</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f>A66 &amp; B66</f>
+        <v>みず水</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f>A67 &amp; B67</f>
+        <v>むし虫</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f>A68 &amp; B68</f>
+        <v>むね胸</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f>A69 &amp; B69</f>
+        <v>やく役</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f>A70 &amp; B70</f>
+        <v>やま山</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f>A71 &amp; B71</f>
+        <v>ゆう夕</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f>A72 &amp; B72</f>
+        <v>ゆき雪</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f>A73 &amp; B73</f>
+        <v>よこ横</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f>A74 &amp; B74</f>
+        <v>よせ寄せ</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A75" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f>A75 &amp; B75</f>
+        <v>よる夜</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f>A76 &amp; B76</f>
+        <v>らく楽</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f>A77 &amp; B77</f>
+        <v>りつ律</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f>A78 &amp; B78</f>
+        <v>りん林</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f>A79 &amp; B79</f>
+        <v>れつ列</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A80" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f>A80 &amp; B80</f>
+        <v>ろう老</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A81" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f>A81 &amp; B81</f>
+        <v>ろく六</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="A82" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f>A82 &amp; B82</f>
+        <v>わた綿</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <autoFilter ref="A1:C82" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C82">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/words_2_chars.xlsx
+++ b/words_2_chars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7024d8b65f2563e3/デスクトップ/雑魚/言葉データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{9E06869B-4713-4286-8574-7518C81953A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80647733-1871-4458-B0BA-072DA7E594D2}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{9E06869B-4713-4286-8574-7518C81953A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0DF310A-E8BD-4A39-A2BB-29D022E2B426}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -893,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -905,7 +905,7 @@
     <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -925,8 +925,12 @@
         <f>A2 &amp; B2</f>
         <v>あい愛</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D2">
+        <f>LEN(A2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -937,8 +941,12 @@
         <f>A3 &amp; B3</f>
         <v>あお青</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D3">
+        <f>LEN(A3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -949,8 +957,12 @@
         <f>A4 &amp; B4</f>
         <v>あお青</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D4">
+        <f>LEN(A4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -961,8 +973,12 @@
         <f>A5 &amp; B5</f>
         <v>あか赤</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D5">
+        <f>LEN(A5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -973,8 +989,12 @@
         <f>A6 &amp; B6</f>
         <v>あき秋</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D6">
+        <f>LEN(A6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -985,8 +1005,12 @@
         <f>A7 &amp; B7</f>
         <v>あき秋</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D7">
+        <f>LEN(A7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -997,8 +1021,12 @@
         <f>A8 &amp; B8</f>
         <v>あさ朝</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D8">
+        <f>LEN(A8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1037,12 @@
         <f>A9 &amp; B9</f>
         <v>あし足</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D9">
+        <f>LEN(A9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -1021,8 +1053,12 @@
         <f>A10 &amp; B10</f>
         <v>あね姉</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D10">
+        <f>LEN(A10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1033,8 +1069,12 @@
         <f>A11 &amp; B11</f>
         <v>いえ家</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D11">
+        <f>LEN(A11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1085,12 @@
         <f>A12 &amp; B12</f>
         <v>いか烏賊</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D12">
+        <f>LEN(A12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -1057,8 +1101,12 @@
         <f>A13 &amp; B13</f>
         <v>いち市</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D13">
+        <f>LEN(A13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1069,8 +1117,12 @@
         <f>A14 &amp; B14</f>
         <v>いる射る</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D14">
+        <f>LEN(A14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -1081,8 +1133,12 @@
         <f>A15 &amp; B15</f>
         <v>うた歌</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D15">
+        <f>LEN(A15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1093,8 +1149,12 @@
         <f>A16 &amp; B16</f>
         <v>うみ海</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D16">
+        <f>LEN(A16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1105,8 +1165,12 @@
         <f>A17 &amp; B17</f>
         <v>えき駅</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D17">
+        <f>LEN(A17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1117,8 +1181,12 @@
         <f>A18 &amp; B18</f>
         <v>えだ枝</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D18">
+        <f>LEN(A18)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -1129,8 +1197,12 @@
         <f>A19 &amp; B19</f>
         <v>えん円</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D19">
+        <f>LEN(A19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
@@ -1141,8 +1213,12 @@
         <f>A20 &amp; B20</f>
         <v>おか丘</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D20">
+        <f>LEN(A20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -1153,8 +1229,12 @@
         <f>A21 &amp; B21</f>
         <v>おと音</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D21">
+        <f>LEN(A21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
         <v>87</v>
       </c>
@@ -1165,8 +1245,12 @@
         <f>A22 &amp; B22</f>
         <v>かお顔</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D22">
+        <f>LEN(A22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
         <v>89</v>
       </c>
@@ -1177,8 +1261,12 @@
         <f>A23 &amp; B23</f>
         <v>かた形</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D23">
+        <f>LEN(A23)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1189,8 +1277,12 @@
         <f>A24 &amp; B24</f>
         <v>かみ紙</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D24">
+        <f>LEN(A24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1201,8 +1293,12 @@
         <f>A25 &amp; B25</f>
         <v>かわ川</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D25">
+        <f>LEN(A25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
@@ -1213,8 +1309,12 @@
         <f>A26 &amp; B26</f>
         <v>きき危機</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D26">
+        <f>LEN(A26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
         <v>93</v>
       </c>
@@ -1225,8 +1325,12 @@
         <f>A27 &amp; B27</f>
         <v>きた北</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D27">
+        <f>LEN(A27)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -1237,8 +1341,12 @@
         <f>A28 &amp; B28</f>
         <v>くに国</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D28">
+        <f>LEN(A28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
         <v>97</v>
       </c>
@@ -1249,8 +1357,12 @@
         <f>A29 &amp; B29</f>
         <v>くも雲</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D29">
+        <f>LEN(A29)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A30" s="3" t="s">
         <v>99</v>
       </c>
@@ -1261,8 +1373,12 @@
         <f>A30 &amp; B30</f>
         <v>ここ心</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D30">
+        <f>LEN(A30)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
         <v>101</v>
       </c>
@@ -1273,8 +1389,12 @@
         <f>A31 &amp; B31</f>
         <v>こめ米</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D31">
+        <f>LEN(A31)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -1285,8 +1405,12 @@
         <f>A32 &amp; B32</f>
         <v>さけ酒</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D32">
+        <f>LEN(A32)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -1297,8 +1421,12 @@
         <f>A33 &amp; B33</f>
         <v>さけ鮭</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D33">
+        <f>LEN(A33)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -1309,8 +1437,12 @@
         <f>A34 &amp; B34</f>
         <v>さら皿</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D34">
+        <f>LEN(A34)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1321,8 +1453,12 @@
         <f>A35 &amp; B35</f>
         <v>さる猿</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D35">
+        <f>LEN(A35)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
@@ -1333,8 +1469,12 @@
         <f>A36 &amp; B36</f>
         <v>しつ質</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D36">
+        <f>LEN(A36)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -1345,8 +1485,12 @@
         <f>A37 &amp; B37</f>
         <v>しろ城</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D37">
+        <f>LEN(A37)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A38" s="3" t="s">
         <v>107</v>
       </c>
@@ -1357,8 +1501,12 @@
         <f>A38 &amp; B38</f>
         <v>じん人</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D38">
+        <f>LEN(A38)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A39" s="3" t="s">
         <v>108</v>
       </c>
@@ -1369,8 +1517,12 @@
         <f>A39 &amp; B39</f>
         <v>すし寿司</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D39">
+        <f>LEN(A39)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A40" s="3" t="s">
         <v>110</v>
       </c>
@@ -1381,8 +1533,12 @@
         <f>A40 &amp; B40</f>
         <v>せか世界</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D40">
+        <f>LEN(A40)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -1393,8 +1549,12 @@
         <f>A41 &amp; B41</f>
         <v>そら空</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D41">
+        <f>LEN(A41)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A42" s="3" t="s">
         <v>114</v>
       </c>
@@ -1405,8 +1565,12 @@
         <f>A42 &amp; B42</f>
         <v>たい体</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D42">
+        <f>LEN(A42)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -1417,8 +1581,12 @@
         <f>A43 &amp; B43</f>
         <v>たけ竹</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D43">
+        <f>LEN(A43)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A44" s="3" t="s">
         <v>116</v>
       </c>
@@ -1429,8 +1597,12 @@
         <f>A44 &amp; B44</f>
         <v>たつ立つ</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D44">
+        <f>LEN(A44)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
@@ -1441,8 +1613,12 @@
         <f>A45 &amp; B45</f>
         <v>たに谷</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D45">
+        <f>LEN(A45)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
         <v>118</v>
       </c>
@@ -1453,8 +1629,12 @@
         <f>A46 &amp; B46</f>
         <v>つき月</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D46">
+        <f>LEN(A46)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
         <v>120</v>
       </c>
@@ -1465,8 +1645,12 @@
         <f>A47 &amp; B47</f>
         <v>てら寺</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D47">
+        <f>LEN(A47)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A48" s="3" t="s">
         <v>122</v>
       </c>
@@ -1477,8 +1661,12 @@
         <f>A48 &amp; B48</f>
         <v>とし年</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D48">
+        <f>LEN(A48)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
@@ -1489,8 +1677,12 @@
         <f>A49 &amp; B49</f>
         <v>とり鳥</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D49">
+        <f>LEN(A49)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
         <v>124</v>
       </c>
@@ -1501,8 +1693,12 @@
         <f>A50 &amp; B50</f>
         <v>なつ夏</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D50">
+        <f>LEN(A50)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
@@ -1513,8 +1709,12 @@
         <f>A51 &amp; B51</f>
         <v>なる鳴る</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D51">
+        <f>LEN(A51)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
         <v>126</v>
       </c>
@@ -1525,8 +1725,12 @@
         <f>A52 &amp; B52</f>
         <v>にわ庭</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D52">
+        <f>LEN(A52)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
         <v>128</v>
       </c>
@@ -1537,8 +1741,12 @@
         <f>A53 &amp; B53</f>
         <v>のう農</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D53">
+        <f>LEN(A53)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
@@ -1549,8 +1757,12 @@
         <f>A54 &amp; B54</f>
         <v>のみ飲み</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D54">
+        <f>LEN(A54)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
         <v>130</v>
       </c>
@@ -1561,8 +1773,12 @@
         <f>A55 &amp; B55</f>
         <v>はし橋</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D55">
+        <f>LEN(A55)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
         <v>45</v>
       </c>
@@ -1573,8 +1789,12 @@
         <f>A56 &amp; B56</f>
         <v>はな花</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D56">
+        <f>LEN(A56)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1585,8 +1805,12 @@
         <f>A57 &amp; B57</f>
         <v>はや早</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D57">
+        <f>LEN(A57)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
         <v>132</v>
       </c>
@@ -1597,8 +1821,12 @@
         <f>A58 &amp; B58</f>
         <v>はる春</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D58">
+        <f>LEN(A58)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
         <v>49</v>
       </c>
@@ -1609,8 +1837,12 @@
         <f>A59 &amp; B59</f>
         <v>ひと人</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D59">
+        <f>LEN(A59)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
         <v>134</v>
       </c>
@@ -1621,8 +1853,12 @@
         <f>A60 &amp; B60</f>
         <v>ひる昼</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D60">
+        <f>LEN(A60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
         <v>51</v>
       </c>
@@ -1633,8 +1869,12 @@
         <f>A61 &amp; B61</f>
         <v>ふね船</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D61">
+        <f>LEN(A61)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
         <v>136</v>
       </c>
@@ -1645,8 +1885,12 @@
         <f>A62 &amp; B62</f>
         <v>ふゆ冬</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D62">
+        <f>LEN(A62)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
         <v>138</v>
       </c>
@@ -1657,8 +1901,12 @@
         <f>A63 &amp; B63</f>
         <v>ほし星</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D63">
+        <f>LEN(A63)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A64" s="3" t="s">
         <v>53</v>
       </c>
@@ -1669,8 +1917,12 @@
         <f>A64 &amp; B64</f>
         <v>まえ前</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D64">
+        <f>LEN(A64)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
         <v>140</v>
       </c>
@@ -1681,8 +1933,12 @@
         <f>A65 &amp; B65</f>
         <v>まつ松</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D65">
+        <f>LEN(A65)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A66" s="3" t="s">
         <v>55</v>
       </c>
@@ -1693,8 +1949,12 @@
         <f>A66 &amp; B66</f>
         <v>みず水</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D66">
+        <f>LEN(A66)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
         <v>57</v>
       </c>
@@ -1705,8 +1965,12 @@
         <f>A67 &amp; B67</f>
         <v>むし虫</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D67">
+        <f>LEN(A67)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A68" s="3" t="s">
         <v>142</v>
       </c>
@@ -1717,8 +1981,12 @@
         <f>A68 &amp; B68</f>
         <v>むね胸</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D68">
+        <f>LEN(A68)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
         <v>144</v>
       </c>
@@ -1729,8 +1997,12 @@
         <f>A69 &amp; B69</f>
         <v>やく役</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D69">
+        <f>LEN(A69)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A70" s="3" t="s">
         <v>59</v>
       </c>
@@ -1741,8 +2013,12 @@
         <f>A70 &amp; B70</f>
         <v>やま山</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D70">
+        <f>LEN(A70)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
         <v>146</v>
       </c>
@@ -1753,8 +2029,12 @@
         <f>A71 &amp; B71</f>
         <v>ゆう夕</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D71">
+        <f>LEN(A71)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
         <v>63</v>
       </c>
@@ -1765,8 +2045,12 @@
         <f>A72 &amp; B72</f>
         <v>ゆき雪</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D72">
+        <f>LEN(A72)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
         <v>65</v>
       </c>
@@ -1777,8 +2061,12 @@
         <f>A73 &amp; B73</f>
         <v>よこ横</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D73">
+        <f>LEN(A73)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A74" s="3" t="s">
         <v>148</v>
       </c>
@@ -1789,8 +2077,12 @@
         <f>A74 &amp; B74</f>
         <v>よせ寄せ</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D74">
+        <f>LEN(A74)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A75" s="3" t="s">
         <v>61</v>
       </c>
@@ -1801,8 +2093,12 @@
         <f>A75 &amp; B75</f>
         <v>よる夜</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D75">
+        <f>LEN(A75)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
@@ -1813,8 +2109,12 @@
         <f>A76 &amp; B76</f>
         <v>らく楽</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D76">
+        <f>LEN(A76)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
         <v>152</v>
       </c>
@@ -1825,8 +2125,12 @@
         <f>A77 &amp; B77</f>
         <v>りつ律</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D77">
+        <f>LEN(A77)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
         <v>67</v>
       </c>
@@ -1837,8 +2141,12 @@
         <f>A78 &amp; B78</f>
         <v>りん林</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D78">
+        <f>LEN(A78)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
         <v>69</v>
       </c>
@@ -1849,8 +2157,12 @@
         <f>A79 &amp; B79</f>
         <v>れつ列</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D79">
+        <f>LEN(A79)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
         <v>71</v>
       </c>
@@ -1861,8 +2173,12 @@
         <f>A80 &amp; B80</f>
         <v>ろう老</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D80">
+        <f>LEN(A80)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
         <v>154</v>
       </c>
@@ -1873,8 +2189,12 @@
         <f>A81 &amp; B81</f>
         <v>ろく六</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="20" x14ac:dyDescent="0.6">
+      <c r="D81">
+        <f>LEN(A81)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
         <v>156</v>
       </c>
@@ -1885,14 +2205,20 @@
         <f>A82 &amp; B82</f>
         <v>わた綿</v>
       </c>
+      <c r="D82">
+        <f>LEN(A82)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C82" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C82">
-      <sortCondition ref="A1:A7"/>
+  <autoFilter ref="A1:D82" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
+      <sortCondition ref="D2:D82"/>
+      <sortCondition ref="A2:A82"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>